--- a/sequences/00_localizer.xlsx
+++ b/sequences/00_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
+    <t>face</t>
   </si>
   <si>
     <t>car</t>
   </si>
   <si>
-    <t>face</t>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
   </si>
   <si>
     <t>dog/dog012.png</t>
   </si>
   <si>
-    <t>dog/dog001.png</t>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
   </si>
   <si>
     <t>flower/flower009.png</t>
   </si>
   <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
+    <t>car/car015.png</t>
   </si>
   <si>
     <t>flower/flower002.png</t>
   </si>
   <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
     <t>dog/dog003.png</t>
   </si>
   <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
   </si>
   <si>
     <t>car/car028.png</t>
   </si>
   <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
     <t>flower/flower031.png</t>
   </si>
   <si>
-    <t>face/face022.png</t>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
   </si>
   <si>
     <t>face/face030.png</t>
   </si>
   <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
   </si>
   <si>
     <t>dog/dog019.png</t>
   </si>
   <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
   </si>
   <si>
     <t>face/face046.png</t>
   </si>
   <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
   </si>
   <si>
     <t>dog/dog038.png</t>
   </si>
   <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
   </si>
   <si>
     <t>face/face041.png</t>
   </si>
   <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
   </si>
   <si>
     <t>dog/dog050.png</t>
   </si>
   <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
   </si>
   <si>
     <t>flower/flower058.png</t>
   </si>
   <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
   </si>
   <si>
     <t>car/car050.png</t>
   </si>
   <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
+    <t>face/face054.png</t>
   </si>
   <si>
     <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.370789454217839</v>
+        <v>1.440804924157596</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.249589879938731</v>
+        <v>1.461512492715727</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.361896862940206</v>
+        <v>1.502905260269456</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.393344289387637</v>
+        <v>1.437638806134697</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1.382325335055728</v>
+        <v>1.643914029225843</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.279944497425455</v>
+        <v>1.176352398540003</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.575121410402663</v>
+        <v>1.609631764007219</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.527037315280512</v>
+        <v>1.469208084686186</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.489161392319015</v>
+        <v>1.61436571139206</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.502195852380404</v>
+        <v>1.742990952182087</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.785745056848248</v>
+        <v>1.548477674197358</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.487782943113048</v>
+        <v>1.371395352674875</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.605115094199591</v>
+        <v>1.260193842817648</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.577038145123898</v>
+        <v>1.837160238621257</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.230940039159128</v>
+        <v>1.672499941352228</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.445496286106084</v>
+        <v>1.485719791225607</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.403069894364724</v>
+        <v>1.411738474574088</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1.702942045962958</v>
+        <v>1.561011485279652</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.2551349434594</v>
+        <v>1.535073306491723</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.616351358954273</v>
+        <v>1.277013357061222</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.533904460915177</v>
+        <v>1.338447206296265</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.311066426762708</v>
+        <v>1.560861322308974</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.370645846930012</v>
+        <v>1.514376962578713</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.538619279843081</v>
+        <v>1.72845577816386</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.546926268794973</v>
+        <v>1.813756248454397</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.501246637520169</v>
+        <v>1.724288995494351</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.473680103195992</v>
+        <v>1.700595101581094</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.551796829895011</v>
+        <v>1.34427396386232</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.313136381302735</v>
+        <v>1.326505141048653</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.50285264029555</v>
+        <v>1.396333101828345</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.331880063034261</v>
+        <v>1.542555675590648</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.350735975606001</v>
+        <v>1.342641776774747</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.490577977776177</v>
+        <v>1.546292126170443</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.332336851635261</v>
+        <v>1.712577864882488</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.649791402617654</v>
+        <v>1.589367072694871</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.191766459345537</v>
+        <v>1.475364785481729</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1.418595662835349</v>
+        <v>1.641947887521559</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.493549791279706</v>
+        <v>1.553567942708609</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.578824040560398</v>
+        <v>1.412709782445304</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.612827975139375</v>
+        <v>1.550747626165892</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.464861542890097</v>
+        <v>1.511266337413601</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.390113867086351</v>
+        <v>1.305852967560974</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.764019145082058</v>
+        <v>1.360106676566488</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.458233649262091</v>
+        <v>1.627575264830335</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.651690063328978</v>
+        <v>1.361901857796827</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.641143908151982</v>
+        <v>1.388143126801438</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.441314558423643</v>
+        <v>1.414346756437308</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.380585726942072</v>
+        <v>1.671265764409768</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.524442873505924</v>
+        <v>1.341033695187098</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.515232504442993</v>
+        <v>1.44049388413344</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.70618725642147</v>
+        <v>1.34004766721959</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.354864576676579</v>
+        <v>1.497679891438613</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.559170074022715</v>
+        <v>1.533182352798164</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.538002795252397</v>
+        <v>1.443242935229866</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.160796938286305</v>
+        <v>1.415399086988849</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.326070647537367</v>
+        <v>1.45648911601638</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.683982158097463</v>
+        <v>1.620535904378535</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.60038513207863</v>
+        <v>1.596434721032713</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.55569727947444</v>
+        <v>1.57652755531727</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.554465667603338</v>
+        <v>1.558138338814443</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.334224960341371</v>
+        <v>1.378074725981051</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.113929238688202</v>
+        <v>1.745701800618823</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.340667967516518</v>
+        <v>1.679797169664498</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.567082073028711</v>
+        <v>1.496145981327077</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.575539503227324</v>
+        <v>1.575730463780102</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.429764263662511</v>
+        <v>1.347684462805942</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.330099210658</v>
+        <v>1.242297000765917</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.484069928557801</v>
+        <v>1.567507148230263</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.26412913209988</v>
+        <v>1.71278326345393</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.574074859782683</v>
+        <v>1.483249294668874</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.489849952257895</v>
+        <v>1.525242806869941</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.396763670797644</v>
+        <v>1.639740696355103</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.634902143092475</v>
+        <v>1.465406059929779</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.417310973860499</v>
+        <v>1.452251139258872</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.365185704187823</v>
+        <v>1.423478842039504</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.389974709206355</v>
+        <v>1.517721147486003</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.508292749569921</v>
+        <v>1.421984874759433</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.504446490043631</v>
+        <v>1.530901358174769</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.734699347730057</v>
+        <v>1.671492014578792</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.5392485642986</v>
+        <v>1.482105206559306</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.546909004121366</v>
+        <v>1.520918494474739</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.425309275320051</v>
+        <v>1.782980676728665</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.426733201480374</v>
+        <v>1.381911094086129</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.525991198099258</v>
+        <v>1.374325339620731</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.378561135387249</v>
+        <v>1.513015749490429</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.457378438847495</v>
+        <v>1.68370513535761</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.379330664761063</v>
+        <v>1.103250426060114</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.428766333944213</v>
+        <v>1.555006327849534</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.568897994313441</v>
+        <v>1.572130446631457</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.613700002084337</v>
+        <v>1.302392081991223</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.694152121222161</v>
+        <v>1.458618595408808</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.47980789989908</v>
+        <v>1.666552827372563</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.417596504007149</v>
+        <v>1.588865960250295</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.521805827703079</v>
+        <v>1.619520752624707</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.710886342806252</v>
+        <v>1.492483952326876</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.616680661376537</v>
+        <v>1.567344616170316</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.769070953245688</v>
+        <v>1.625894524444141</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.327724460943935</v>
+        <v>1.627620622427421</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.633396478729177</v>
+        <v>1.349498594623894</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.599771141425699</v>
+        <v>1.479756073082842</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.179293279068602</v>
+        <v>1.4651361250443</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.447827050046963</v>
+        <v>1.286089607814533</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.417517793933356</v>
+        <v>1.712074871400285</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.562295895890984</v>
+        <v>1.379276876293658</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.857148040309699</v>
+        <v>1.320578332339876</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.447750612764262</v>
+        <v>1.48642817596139</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.732051795011851</v>
+        <v>1.757092686397854</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.722682108880659</v>
+        <v>1.322671567365016</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.432734377288891</v>
+        <v>1.468740243492382</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.174961364019199</v>
+        <v>1.342844065884593</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.548635620151096</v>
+        <v>1.49481616432632</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.466540531225725</v>
+        <v>1.647386154934531</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.433126608280182</v>
+        <v>1.573216048922178</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.350404998357739</v>
+        <v>1.536330329077892</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.368622082198798</v>
+        <v>1.541222824311473</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.615649115831501</v>
+        <v>1.315487467632711</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.509766491092973</v>
+        <v>1.683012086039021</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.573070432861271</v>
+        <v>1.463328198532554</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.320356838134738</v>
+        <v>1.511022178406861</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.666090617967399</v>
+        <v>1.625450508702134</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.393332111632583</v>
+        <v>1.418487509709028</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.662528684838959</v>
+        <v>1.429801189111719</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.242143273057112</v>
+        <v>1.604480276548054</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.61274938960164</v>
+        <v>1.332797626062865</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.499190294984265</v>
+        <v>1.488936885233262</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.520260896165384</v>
+        <v>1.58324186158047</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.518832296818283</v>
+        <v>1.590368529801819</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.29674271786533</v>
+        <v>1.373500575927377</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.719219957659522</v>
+        <v>1.550439325527008</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.649880052343563</v>
+        <v>1.327851062041201</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.444481397830967</v>
+        <v>1.45021855038499</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.589289877243073</v>
+        <v>1.625619882571844</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.586611024320031</v>
+        <v>1.54728304884198</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.502235824493382</v>
+        <v>1.480758486679992</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.595603646378942</v>
+        <v>1.664335496625399</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.146919893921357</v>
+        <v>1.5195208391086</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.292147358805767</v>
+        <v>1.128706731594919</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.499603442567969</v>
+        <v>1.408227303496191</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.424925386470987</v>
+        <v>1.392523483788213</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.486127249592624</v>
+        <v>1.43422792477077</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.292538259642201</v>
+        <v>1.331313808893222</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.500958459734651</v>
+        <v>1.4335747982845</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.461066778638786</v>
+        <v>1.735941987757718</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.431184967292719</v>
+        <v>1.608108059603659</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.418768215585904</v>
+        <v>1.402763700963927</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.60502658967788</v>
+        <v>1.580465201095905</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.300955023909973</v>
+        <v>1.52659592736622</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>1.501023643864655</v>
+        <v>1.665486426752977</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.566128399546927</v>
+        <v>1.319865344189061</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.833116333675197</v>
+        <v>1.703198720637733</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.347258013037747</v>
+        <v>1.534886312407596</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.5209703639309</v>
+        <v>1.69241717078905</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.4826173519034</v>
+        <v>1.595555318671553</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.609567393093895</v>
+        <v>1.405412276130852</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.633787689904432</v>
+        <v>1.51931913229454</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.489140858434716</v>
+        <v>1.672655498533929</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.570062049556141</v>
+        <v>1.567811080340597</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.797136177983565</v>
+        <v>1.331530230287316</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.376908614994375</v>
+        <v>1.443509963552059</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.78059548661905</v>
+        <v>1.606625861497129</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.713855923717957</v>
+        <v>1.541847160613474</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.538221988973316</v>
+        <v>1.635413824802926</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.484758759425965</v>
+        <v>1.336391620976284</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.737174397918176</v>
+        <v>1.561775135822278</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.505996846325949</v>
+        <v>1.532373084732458</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.606464031959374</v>
+        <v>1.309950714084556</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.444647315656602</v>
+        <v>1.530882345511484</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.62700072873325</v>
+        <v>1.268421590228383</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.552911185462971</v>
+        <v>1.369440837647732</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.505154963681717</v>
+        <v>1.364116228952273</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.365991620828504</v>
+        <v>1.71148842984524</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.381139733477585</v>
+        <v>1.513107832698179</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.474399731646666</v>
+        <v>1.461915989175973</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.450681950677418</v>
+        <v>1.362167064186824</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.538753123182135</v>
+        <v>1.559143758374354</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.765869889432468</v>
+        <v>1.453896802199981</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.424945601191458</v>
+        <v>1.577569636602995</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.352260132437426</v>
+        <v>1.403565440915671</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.494021044046623</v>
+        <v>1.574803077439261</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.394845028503497</v>
+        <v>1.316838627372111</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.649649768519144</v>
+        <v>1.502484963920949</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.558586996913797</v>
+        <v>1.67198975465982</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.516588927457144</v>
+        <v>1.897474926185523</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.368508734024213</v>
+        <v>1.366411962108072</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.222697736172834</v>
+        <v>1.395796195395492</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.082867023759815</v>
+        <v>1.794006330023707</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.659479886204592</v>
+        <v>1.754008543553507</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.299534819362</v>
+        <v>1.483008926388433</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.526855502287892</v>
+        <v>1.717396585066494</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.507999797498071</v>
+        <v>1.410891356133481</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.644949650433544</v>
+        <v>1.616790478623458</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.456372486314358</v>
+        <v>1.512335588277288</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.448571323406931</v>
+        <v>1.564759795773516</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.434411778152461</v>
+        <v>1.48998259490472</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.557752929467832</v>
+        <v>1.638770732026718</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.560886895585651</v>
+        <v>1.312255483120535</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.233489673411163</v>
+        <v>1.593515641430202</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.432475145586607</v>
+        <v>1.272879451015812</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.675375130439453</v>
+        <v>1.428020942889066</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.39289532982162</v>
+        <v>1.279699368574652</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.387943219366695</v>
+        <v>1.416761982566516</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.442221263177683</v>
+        <v>1.497148945268536</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.263916505545365</v>
+        <v>1.218025012479417</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.372297995354542</v>
+        <v>1.385414294365422</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.636783961636326</v>
+        <v>1.428079681821415</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.644216246877751</v>
+        <v>1.553881124699401</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.304481738900529</v>
+        <v>1.346513696892337</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.635721293478625</v>
+        <v>1.40307644587782</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.342848498932004</v>
+        <v>1.441609495116374</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.742457674004998</v>
+        <v>1.255262028502331</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.329955669540908</v>
+        <v>1.504977920826765</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.10328284537264</v>
+        <v>1.643793750051891</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.518976695991985</v>
+        <v>1.701572741648615</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.6981660114233</v>
+        <v>1.456477123742894</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.513215555205097</v>
+        <v>1.486436752016816</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.621309534106905</v>
+        <v>1.461348418235827</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.593597170432422</v>
+        <v>1.614955673203411</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.39109458561907</v>
+        <v>1.811598187125864</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.412365674985346</v>
+        <v>1.479895126789556</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.785630935917914</v>
+        <v>1.357260010723796</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.216183275871297</v>
+        <v>1.470845315200523</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.919887830633564</v>
+        <v>1.425408846841669</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.393592097049498</v>
+        <v>1.630815542390778</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.694603412069708</v>
+        <v>1.22538038105242</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.690642029190887</v>
+        <v>1.579726216253913</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.606197590598864</v>
+        <v>1.856466919901816</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.462709031982238</v>
+        <v>1.620388737428777</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.452232571007014</v>
+        <v>1.530779222113471</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.481995361436059</v>
+        <v>1.620854148137355</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.229952136239758</v>
+        <v>1.409227421876843</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.530199367708649</v>
+        <v>1.600580000150011</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.394502853191471</v>
+        <v>1.323227406384357</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.478120103082979</v>
+        <v>1.626788820279676</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.444258906130345</v>
+        <v>1.674061021274504</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.584410500563616</v>
+        <v>1.639579429737553</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.758053271078938</v>
+        <v>1.438095108456851</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.360459944446333</v>
+        <v>1.376179147660487</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.559498829074343</v>
+        <v>1.595089964241137</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.605657611481606</v>
+        <v>1.810251311805044</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.555921343674614</v>
+        <v>1.436083563633028</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.652432019595408</v>
+        <v>1.303601817593534</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.485224609879498</v>
+        <v>1.558637157680846</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.763997899545855</v>
+        <v>1.466977474562058</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.807234567974368</v>
+        <v>1.583671184641513</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.432760509040286</v>
+        <v>1.742579797612307</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.479519614543221</v>
+        <v>1.446089440291186</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.790585401135552</v>
+        <v>1.529073997549085</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.554250239476607</v>
+        <v>1.482992215089924</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.398110813751806</v>
+        <v>1.640827513672537</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.326587257672283</v>
+        <v>1.374018678270536</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.40388735726357</v>
+        <v>1.396521469755021</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.617388205034515</v>
+        <v>1.342286568992725</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.417516190839077</v>
+        <v>1.295939841997042</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.447551588518083</v>
+        <v>1.442913006227776</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.515379486610956</v>
+        <v>1.270939314741247</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.665296258041525</v>
+        <v>1.629653707619258</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/00_localizer.xlsx
+++ b/sequences/00_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>car</t>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
   </si>
   <si>
     <t>flower/flower000.png</t>
   </si>
   <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>house/house008.png</t>
+  </si>
+  <si>
+    <t>house/house012.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>house/house013.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>house/house009.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>house/house006.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>house/house001.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>house/house005.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>house/house002.png</t>
+  </si>
+  <si>
+    <t>house/house010.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>house/house000.png</t>
+  </si>
+  <si>
+    <t>house/house007.png</t>
+  </si>
+  <si>
+    <t>house/house015.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>house/house004.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>house/house014.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
     <t>dog/dog010.png</t>
   </si>
   <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
+    <t>house/house011.png</t>
   </si>
   <si>
     <t>face/face015.png</t>
   </si>
   <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
+    <t>house/house003.png</t>
   </si>
   <si>
     <t>dog/dog012.png</t>
   </si>
   <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>house/house027.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>house/house020.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>house/house024.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>house/house023.png</t>
+  </si>
+  <si>
+    <t>house/house016.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
   </si>
   <si>
     <t>flower/flower025.png</t>
   </si>
   <si>
+    <t>house/house021.png</t>
+  </si>
+  <si>
+    <t>house/house018.png</t>
+  </si>
+  <si>
+    <t>house/house022.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>house/house025.png</t>
+  </si>
+  <si>
+    <t>house/house019.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
     <t>face/face024.png</t>
   </si>
   <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>house/house030.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>house/house029.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
   </si>
   <si>
     <t>flower/flower018.png</t>
   </si>
   <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>house/house028.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>house/house026.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
   </si>
   <si>
     <t>flower/flower021.png</t>
   </si>
   <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>house/house017.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
     <t>face/face029.png</t>
   </si>
   <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
+    <t>house/house031.png</t>
   </si>
   <si>
     <t>face/face031.png</t>
   </si>
   <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
+    <t>house/house047.png</t>
+  </si>
+  <si>
+    <t>house/house041.png</t>
+  </si>
+  <si>
+    <t>house/house042.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>house/house033.png</t>
+  </si>
+  <si>
+    <t>house/house036.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>house/house043.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>house/house034.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>house/house035.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>house/house045.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>house/house032.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>house/house040.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>house/house039.png</t>
+  </si>
+  <si>
+    <t>house/house038.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>house/house044.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>house/house046.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
   </si>
   <si>
     <t>flower/flower046.png</t>
   </si>
   <si>
+    <t>house/house037.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
     <t>flower/flower032.png</t>
   </si>
   <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
+    <t>house/house059.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>house/house057.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>house/house056.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
   </si>
   <si>
     <t>flower/flower048.png</t>
   </si>
   <si>
-    <t>face/face048.png</t>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>house/house061.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>house/house060.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>house/house054.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>house/house048.png</t>
   </si>
   <si>
     <t>dog/dog057.png</t>
   </si>
   <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>house/house062.png</t>
+  </si>
+  <si>
+    <t>house/house052.png</t>
+  </si>
+  <si>
+    <t>house/house049.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>house/house051.png</t>
+  </si>
+  <si>
+    <t>house/house063.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>house/house058.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
     <t>face/face051.png</t>
   </si>
   <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>house/house050.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>house/house055.png</t>
+  </si>
+  <si>
+    <t>house/house053.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
     <t>dog/dog060.png</t>
   </si>
   <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
+    <t>dog/dog062.png</t>
   </si>
   <si>
     <t>flower/flower049.png</t>
   </si>
   <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
     <t>flower/flower050.png</t>
   </si>
   <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
+    <t>flower/flower062.png</t>
   </si>
   <si>
     <t>face/face049.png</t>
   </si>
   <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
+    <t>face/face056.png</t>
   </si>
   <si>
     <t>flower/flower056.png</t>
   </si>
   <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
     <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.440804924157596</v>
+        <v>1.425004771974814</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.461512492715727</v>
+        <v>1.3941687903868</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.502905260269456</v>
+        <v>1.502426265170141</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.437638806134697</v>
+        <v>1.632221399138337</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.643914029225843</v>
+        <v>1.354019190018094</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.176352398540003</v>
+        <v>1.387304569810629</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.609631764007219</v>
+        <v>1.40538668515881</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.469208084686186</v>
+        <v>1.397219004291302</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.61436571139206</v>
+        <v>1.777319739223756</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.742990952182087</v>
+        <v>1.380045642729424</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.548477674197358</v>
+        <v>1.563714760954438</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.371395352674875</v>
+        <v>1.638221786921323</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.260193842817648</v>
+        <v>1.294435493427841</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.837160238621257</v>
+        <v>1.469305398249167</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.672499941352228</v>
+        <v>1.426687051581389</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.485719791225607</v>
+        <v>1.609385829866177</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.411738474574088</v>
+        <v>1.626838953738439</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.561011485279652</v>
+        <v>1.616745551118785</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.535073306491723</v>
+        <v>1.402870056763314</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.277013357061222</v>
+        <v>1.511510733691323</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.338447206296265</v>
+        <v>1.451126412138824</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.560861322308974</v>
+        <v>1.541063629379452</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.514376962578713</v>
+        <v>1.463158534661601</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.72845577816386</v>
+        <v>1.286843658159434</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.813756248454397</v>
+        <v>1.448637639062552</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.724288995494351</v>
+        <v>1.756934985863287</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.700595101581094</v>
+        <v>1.659834504228257</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.34427396386232</v>
+        <v>1.518124445091738</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.326505141048653</v>
+        <v>1.568287893826169</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.396333101828345</v>
+        <v>1.484447391041886</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.542555675590648</v>
+        <v>1.154540465673056</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.342641776774747</v>
+        <v>1.309897783280255</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.546292126170443</v>
+        <v>1.505939707602285</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.712577864882488</v>
+        <v>1.682883441678882</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.589367072694871</v>
+        <v>1.609169533434064</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.475364785481729</v>
+        <v>1.630198086400028</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.641947887521559</v>
+        <v>1.439904547155214</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.553567942708609</v>
+        <v>1.654424771580348</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.412709782445304</v>
+        <v>1.478547032374761</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.550747626165892</v>
+        <v>1.958831266461952</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.511266337413601</v>
+        <v>1.320517011297952</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.305852967560974</v>
+        <v>1.490807636051184</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.360106676566488</v>
+        <v>1.394941358528302</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.627575264830335</v>
+        <v>1.183141294407482</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.361901857796827</v>
+        <v>1.520947606307076</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.388143126801438</v>
+        <v>1.318730386008728</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.414346756437308</v>
+        <v>1.416982319189972</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.671265764409768</v>
+        <v>1.448563642062049</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.341033695187098</v>
+        <v>1.030731625316318</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.44049388413344</v>
+        <v>1.559111109719699</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.34004766721959</v>
+        <v>1.496175506037599</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.497679891438613</v>
+        <v>1.570748819185952</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.533182352798164</v>
+        <v>1.572232307762416</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.443242935229866</v>
+        <v>1.396378524602683</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.415399086988849</v>
+        <v>1.645214556537925</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.45648911601638</v>
+        <v>1.634827985427777</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.620535904378535</v>
+        <v>1.643021562236368</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.596434721032713</v>
+        <v>1.644945577954336</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.57652755531727</v>
+        <v>1.615634438192232</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.558138338814443</v>
+        <v>1.454246420288338</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.378074725981051</v>
+        <v>1.569967419822938</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.745701800618823</v>
+        <v>1.642299461338483</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.679797169664498</v>
+        <v>1.497402859905426</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.496145981327077</v>
+        <v>1.452008175384269</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.575730463780102</v>
+        <v>1.363874607330863</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.347684462805942</v>
+        <v>1.761589937880744</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.242297000765917</v>
+        <v>1.335795832290734</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.567507148230263</v>
+        <v>1.506269946881585</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.71278326345393</v>
+        <v>1.735278721071794</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.483249294668874</v>
+        <v>1.478535804654215</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.525242806869941</v>
+        <v>1.716649945288062</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.639740696355103</v>
+        <v>1.493177382046585</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.465406059929779</v>
+        <v>1.462802572130028</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.452251139258872</v>
+        <v>1.374087153088342</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.423478842039504</v>
+        <v>1.558705669097472</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.517721147486003</v>
+        <v>1.48113738467803</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.421984874759433</v>
+        <v>1.362709341485849</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.530901358174769</v>
+        <v>1.342455387311014</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.671492014578792</v>
+        <v>1.335031502212351</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.482105206559306</v>
+        <v>1.417037128985853</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.520918494474739</v>
+        <v>1.702580226272761</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.782980676728665</v>
+        <v>1.657809733342132</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.381911094086129</v>
+        <v>1.319763180418356</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.374325339620731</v>
+        <v>1.378598009276162</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.513015749490429</v>
+        <v>1.561635171523664</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.68370513535761</v>
+        <v>1.39416372763083</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.103250426060114</v>
+        <v>1.332585472562439</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.555006327849534</v>
+        <v>1.362706408383944</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.572130446631457</v>
+        <v>1.479632985485238</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.302392081991223</v>
+        <v>1.553131613899222</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.458618595408808</v>
+        <v>1.638426034499885</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.666552827372563</v>
+        <v>1.324590306723723</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.588865960250295</v>
+        <v>1.229895148729329</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.619520752624707</v>
+        <v>1.402320207692337</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.492483952326876</v>
+        <v>1.063714566144959</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.567344616170316</v>
+        <v>1.816339196333224</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.625894524444141</v>
+        <v>1.732930081295225</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.627620622427421</v>
+        <v>1.508321773152161</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.349498594623894</v>
+        <v>1.563689181917524</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.479756073082842</v>
+        <v>1.472173547619099</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.4651361250443</v>
+        <v>1.276518270533218</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.286089607814533</v>
+        <v>1.323216295854868</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.712074871400285</v>
+        <v>1.727432681296626</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.379276876293658</v>
+        <v>1.496424132533696</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.320578332339876</v>
+        <v>1.632244950913206</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.48642817596139</v>
+        <v>1.400773203189795</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.757092686397854</v>
+        <v>1.664843334890758</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.322671567365016</v>
+        <v>1.741903244359652</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.468740243492382</v>
+        <v>1.245527740104132</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.342844065884593</v>
+        <v>1.487418183832101</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.49481616432632</v>
+        <v>1.571878174511028</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.647386154934531</v>
+        <v>1.550726832610672</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.573216048922178</v>
+        <v>1.428860012107075</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.536330329077892</v>
+        <v>1.765432810649149</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1.541222824311473</v>
+        <v>1.4427583750753</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.315487467632711</v>
+        <v>1.554209878534065</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.683012086039021</v>
+        <v>1.263827145737298</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.463328198532554</v>
+        <v>1.558163468535074</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.511022178406861</v>
+        <v>1.270902278255492</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.625450508702134</v>
+        <v>1.35647977945492</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.418487509709028</v>
+        <v>1.537852063856498</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.429801189111719</v>
+        <v>1.543881583941635</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.604480276548054</v>
+        <v>1.400972902953487</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.332797626062865</v>
+        <v>1.483848714204107</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.488936885233262</v>
+        <v>1.555199915181679</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.58324186158047</v>
+        <v>1.750361060847609</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.590368529801819</v>
+        <v>1.48499621182391</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.373500575927377</v>
+        <v>1.164587248713618</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.550439325527008</v>
+        <v>1.560512759895741</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.327851062041201</v>
+        <v>1.317283180511882</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.45021855038499</v>
+        <v>1.693027106562896</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.625619882571844</v>
+        <v>1.380311375719619</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.54728304884198</v>
+        <v>1.685523026119164</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.480758486679992</v>
+        <v>1.390819899329944</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.664335496625399</v>
+        <v>1.492610115190801</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.5195208391086</v>
+        <v>1.708348770650657</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.128706731594919</v>
+        <v>1.456371799947596</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.408227303496191</v>
+        <v>1.314008133028393</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.392523483788213</v>
+        <v>1.488061328374034</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.43422792477077</v>
+        <v>1.595480295692359</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.331313808893222</v>
+        <v>1.598251668775543</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.4335747982845</v>
+        <v>1.453800624292344</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.735941987757718</v>
+        <v>1.51930884002646</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.608108059603659</v>
+        <v>1.545921499300655</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.402763700963927</v>
+        <v>1.355810704641818</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.580465201095905</v>
+        <v>1.152312607045816</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.52659592736622</v>
+        <v>1.664217046144797</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.665486426752977</v>
+        <v>1.263873334854475</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.319865344189061</v>
+        <v>1.543623554417009</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.703198720637733</v>
+        <v>1.61413962742425</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.534886312407596</v>
+        <v>1.222752813640489</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.69241717078905</v>
+        <v>1.46402454425411</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.595555318671553</v>
+        <v>1.60323441458316</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.405412276130852</v>
+        <v>1.223063085144735</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.51931913229454</v>
+        <v>1.320770069254508</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.672655498533929</v>
+        <v>1.705269377175398</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.567811080340597</v>
+        <v>1.248444931159605</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.331530230287316</v>
+        <v>1.456772162175529</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.443509963552059</v>
+        <v>1.42911313949597</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.606625861497129</v>
+        <v>1.206178436601221</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.541847160613474</v>
+        <v>1.671558037575423</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.635413824802926</v>
+        <v>1.418431739145034</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.336391620976284</v>
+        <v>1.498171633899216</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.561775135822278</v>
+        <v>1.584197673032593</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.532373084732458</v>
+        <v>1.407544859914926</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.309950714084556</v>
+        <v>1.452696514396263</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.530882345511484</v>
+        <v>1.565975706367715</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.268421590228383</v>
+        <v>1.540640237802934</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.369440837647732</v>
+        <v>1.579637983554019</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.364116228952273</v>
+        <v>1.797079249141579</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.71148842984524</v>
+        <v>1.462999198944401</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.513107832698179</v>
+        <v>1.425599302810476</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.461915989175973</v>
+        <v>1.449393304003194</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.362167064186824</v>
+        <v>1.366607407203762</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.559143758374354</v>
+        <v>1.338944695801832</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.453896802199981</v>
+        <v>1.594886438115428</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.577569636602995</v>
+        <v>1.429207506202236</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.403565440915671</v>
+        <v>1.349986047747418</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.574803077439261</v>
+        <v>1.572208901289712</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.316838627372111</v>
+        <v>1.390605541550887</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.502484963920949</v>
+        <v>1.789252588272126</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.67198975465982</v>
+        <v>1.439671270060448</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.897474926185523</v>
+        <v>1.6994604232156</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.366411962108072</v>
+        <v>1.462416333421896</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.395796195395492</v>
+        <v>1.574531152578087</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.794006330023707</v>
+        <v>1.536961790487521</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.754008543553507</v>
+        <v>1.497156546111615</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.483008926388433</v>
+        <v>1.245590442173211</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.717396585066494</v>
+        <v>1.69435621697944</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.410891356133481</v>
+        <v>1.503150223092333</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.616790478623458</v>
+        <v>1.298842142626728</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.512335588277288</v>
+        <v>1.557508923820452</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.564759795773516</v>
+        <v>1.453440554978205</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.48998259490472</v>
+        <v>1.305792400260073</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.638770732026718</v>
+        <v>1.450001091543797</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.312255483120535</v>
+        <v>1.557402516580576</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.593515641430202</v>
+        <v>1.560473075804967</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.272879451015812</v>
+        <v>1.135987662067806</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.428020942889066</v>
+        <v>1.749987938656617</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.279699368574652</v>
+        <v>1.421113673727654</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.416761982566516</v>
+        <v>1.549217176997543</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.497148945268536</v>
+        <v>1.641791494765898</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.218025012479417</v>
+        <v>1.389825696966728</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.385414294365422</v>
+        <v>1.327807757868153</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.428079681821415</v>
+        <v>1.419742120567236</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.553881124699401</v>
+        <v>1.433695286431616</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.346513696892337</v>
+        <v>1.58818047431495</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.40307644587782</v>
+        <v>1.745054640271383</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.441609495116374</v>
+        <v>1.500446213413503</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.255262028502331</v>
+        <v>1.377358385251837</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.504977920826765</v>
+        <v>1.216370985653596</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.643793750051891</v>
+        <v>1.493682781674287</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.701572741648615</v>
+        <v>1.560883657101181</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.456477123742894</v>
+        <v>1.478586392918259</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.486436752016816</v>
+        <v>1.40512574051861</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.461348418235827</v>
+        <v>1.587526401224783</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.614955673203411</v>
+        <v>1.383045312381154</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.811598187125864</v>
+        <v>1.43407933263618</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.479895126789556</v>
+        <v>1.44775808346253</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.357260010723796</v>
+        <v>1.54952479906912</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.470845315200523</v>
+        <v>1.673437856210398</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.425408846841669</v>
+        <v>1.245737084004192</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.630815542390778</v>
+        <v>1.527141880492564</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.22538038105242</v>
+        <v>1.636027209991927</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.579726216253913</v>
+        <v>1.4089514495846</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.856466919901816</v>
+        <v>1.604916317531157</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.620388737428777</v>
+        <v>1.363695975124813</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.530779222113471</v>
+        <v>1.455511952378011</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.620854148137355</v>
+        <v>1.586590592449128</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.409227421876843</v>
+        <v>1.335830283747414</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.600580000150011</v>
+        <v>1.427047561901685</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.323227406384357</v>
+        <v>1.34674925314606</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.626788820279676</v>
+        <v>1.289937068927179</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.674061021274504</v>
+        <v>1.648838754531288</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.639579429737553</v>
+        <v>1.781294723374858</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.438095108456851</v>
+        <v>1.548864651786616</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.376179147660487</v>
+        <v>1.409850013376667</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.595089964241137</v>
+        <v>1.508352955391049</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.810251311805044</v>
+        <v>1.651342748613966</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.436083563633028</v>
+        <v>1.275246898076818</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.303601817593534</v>
+        <v>1.431566245729593</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.558637157680846</v>
+        <v>1.507719939947335</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.466977474562058</v>
+        <v>1.740689322377492</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.583671184641513</v>
+        <v>1.538669046063144</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.742579797612307</v>
+        <v>1.467078768296875</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.446089440291186</v>
+        <v>1.571924612059304</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.529073997549085</v>
+        <v>1.559212254533813</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.482992215089924</v>
+        <v>1.665873500354341</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.640827513672537</v>
+        <v>1.463517594986685</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.374018678270536</v>
+        <v>1.307391268886351</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.396521469755021</v>
+        <v>1.643866234862989</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.342286568992725</v>
+        <v>1.798275286054551</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.295939841997042</v>
+        <v>1.448855465810271</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.442913006227776</v>
+        <v>1.486973647596776</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.270939314741247</v>
+        <v>1.390539728265468</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.629653707619258</v>
+        <v>1.640068834355965</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/00_localizer.xlsx
+++ b/sequences/00_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>house/house008.png</t>
-  </si>
-  <si>
-    <t>house/house012.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>house/house013.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>house/house009.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>house/house006.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>house/house001.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>house/house005.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>house/house002.png</t>
-  </si>
-  <si>
-    <t>house/house010.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>house/house000.png</t>
-  </si>
-  <si>
-    <t>house/house007.png</t>
-  </si>
-  <si>
-    <t>house/house015.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>house/house004.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>house/house014.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>house/house011.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>house/house003.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>house/house027.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>house/house020.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>house/house024.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>house/house023.png</t>
-  </si>
-  <si>
-    <t>house/house016.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>house/house021.png</t>
-  </si>
-  <si>
-    <t>house/house018.png</t>
-  </si>
-  <si>
-    <t>house/house022.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>house/house025.png</t>
-  </si>
-  <si>
-    <t>house/house019.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>house/house030.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>house/house029.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>house/house028.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>house/house026.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>house/house017.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>house/house031.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>house/house047.png</t>
-  </si>
-  <si>
-    <t>house/house041.png</t>
-  </si>
-  <si>
-    <t>house/house042.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>house/house033.png</t>
-  </si>
-  <si>
-    <t>house/house036.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>house/house043.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>house/house034.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>house/house035.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>house/house045.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>house/house032.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>house/house040.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>house/house039.png</t>
-  </si>
-  <si>
-    <t>house/house038.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>house/house044.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>house/house046.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>house/house037.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>house/house059.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>house/house057.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>house/house056.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>house/house061.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>house/house060.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>house/house054.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>house/house048.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>house/house062.png</t>
-  </si>
-  <si>
-    <t>house/house052.png</t>
-  </si>
-  <si>
-    <t>house/house049.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>house/house051.png</t>
-  </si>
-  <si>
-    <t>house/house063.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>house/house058.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>house/house050.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>house/house055.png</t>
-  </si>
-  <si>
-    <t>house/house053.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.425004771974814</v>
+        <v>1.409904196512179</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.3941687903868</v>
+        <v>1.456245937531008</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.502426265170141</v>
+        <v>1.409744008165591</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.632221399138337</v>
+        <v>1.777841727676341</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.354019190018094</v>
+        <v>1.49797541628931</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.387304569810629</v>
+        <v>1.341343360656615</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.40538668515881</v>
+        <v>1.623381736815478</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.397219004291302</v>
+        <v>1.316873452504347</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.777319739223756</v>
+        <v>1.531329539250713</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.380045642729424</v>
+        <v>1.206049481418034</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.563714760954438</v>
+        <v>1.300772092665236</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.638221786921323</v>
+        <v>1.529529185380369</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.294435493427841</v>
+        <v>1.610769986999312</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.469305398249167</v>
+        <v>1.525705242178496</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.426687051581389</v>
+        <v>1.482652757641764</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.609385829866177</v>
+        <v>1.454834445661607</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.626838953738439</v>
+        <v>1.278221701444886</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.616745551118785</v>
+        <v>1.392023368740794</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.402870056763314</v>
+        <v>1.430904184356032</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.511510733691323</v>
+        <v>1.658568333932837</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.451126412138824</v>
+        <v>1.551542743435269</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.541063629379452</v>
+        <v>1.23554397669559</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.463158534661601</v>
+        <v>1.548612595409219</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.286843658159434</v>
+        <v>1.442237657937552</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.448637639062552</v>
+        <v>1.398461699954106</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.756934985863287</v>
+        <v>1.59175144332613</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.659834504228257</v>
+        <v>1.654649928374393</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.518124445091738</v>
+        <v>1.63969201786743</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.568287893826169</v>
+        <v>1.374117371516604</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.484447391041886</v>
+        <v>1.453618143622318</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.154540465673056</v>
+        <v>1.549689514710535</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.309897783280255</v>
+        <v>1.646331769068354</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.505939707602285</v>
+        <v>1.428123864323207</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.682883441678882</v>
+        <v>1.472151153500427</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.609169533434064</v>
+        <v>1.334049753899096</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.630198086400028</v>
+        <v>1.320569006387899</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.439904547155214</v>
+        <v>1.62187887335913</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.654424771580348</v>
+        <v>1.703436004285623</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.478547032374761</v>
+        <v>1.48919848176295</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.958831266461952</v>
+        <v>1.650529934683804</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.320517011297952</v>
+        <v>1.554245403757145</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.490807636051184</v>
+        <v>1.403232036809231</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.394941358528302</v>
+        <v>1.554209340826262</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.183141294407482</v>
+        <v>1.730705484969895</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.520947606307076</v>
+        <v>1.494626094133507</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.318730386008728</v>
+        <v>1.734696548372101</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.416982319189972</v>
+        <v>1.107038234386538</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.448563642062049</v>
+        <v>1.623285375656284</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.030731625316318</v>
+        <v>1.513057060235726</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.559111109719699</v>
+        <v>1.45514889743012</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.496175506037599</v>
+        <v>1.513764116480325</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.570748819185952</v>
+        <v>1.201864662809866</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.572232307762416</v>
+        <v>1.467049216824373</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.396378524602683</v>
+        <v>1.553566885726762</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.645214556537925</v>
+        <v>1.721684106711227</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.634827985427777</v>
+        <v>1.422259467258953</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.643021562236368</v>
+        <v>1.378725959566022</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.644945577954336</v>
+        <v>1.42473644346232</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.615634438192232</v>
+        <v>1.637310317655311</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.454246420288338</v>
+        <v>1.549312666448953</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.569967419822938</v>
+        <v>1.420535969434944</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.642299461338483</v>
+        <v>1.576990114967003</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.497402859905426</v>
+        <v>1.514561632402206</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.452008175384269</v>
+        <v>1.645296748579933</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.363874607330863</v>
+        <v>1.394692035918397</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.761589937880744</v>
+        <v>1.450850678010335</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.335795832290734</v>
+        <v>1.441183777030176</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.506269946881585</v>
+        <v>1.280472757780182</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>1.735278721071794</v>
+        <v>1.544418041559686</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.478535804654215</v>
+        <v>1.539158290826983</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.716649945288062</v>
+        <v>1.500767018496369</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.493177382046585</v>
+        <v>1.464811929993728</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.462802572130028</v>
+        <v>1.287694388692438</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.374087153088342</v>
+        <v>1.436903201585196</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.558705669097472</v>
+        <v>1.448592822520985</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.48113738467803</v>
+        <v>1.379658409616757</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.362709341485849</v>
+        <v>1.475807143250099</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.342455387311014</v>
+        <v>1.560607628522181</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.335031502212351</v>
+        <v>1.78292788518158</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.417037128985853</v>
+        <v>1.526186671924776</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.702580226272761</v>
+        <v>1.538632558608415</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.657809733342132</v>
+        <v>1.488833112635075</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.319763180418356</v>
+        <v>1.212184317705144</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.378598009276162</v>
+        <v>1.496022918682617</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.561635171523664</v>
+        <v>1.509034531491154</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.39416372763083</v>
+        <v>1.869486316872793</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.332585472562439</v>
+        <v>1.471145855282832</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.362706408383944</v>
+        <v>1.545232101350042</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.479632985485238</v>
+        <v>1.494793234544213</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.553131613899222</v>
+        <v>1.32469829435707</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.638426034499885</v>
+        <v>1.671423422177253</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.324590306723723</v>
+        <v>1.612789954903016</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.229895148729329</v>
+        <v>1.618654792056457</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.402320207692337</v>
+        <v>1.363591881780789</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.063714566144959</v>
+        <v>1.710419146640415</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.816339196333224</v>
+        <v>1.289722340581158</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.732930081295225</v>
+        <v>1.58802856407004</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.508321773152161</v>
+        <v>1.828568343871497</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.563689181917524</v>
+        <v>1.351419551230397</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.472173547619099</v>
+        <v>1.415055340559584</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.276518270533218</v>
+        <v>1.514947704763146</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.323216295854868</v>
+        <v>1.42447865188257</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.727432681296626</v>
+        <v>1.26740048534008</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.496424132533696</v>
+        <v>1.510284446220904</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.632244950913206</v>
+        <v>1.340654442941084</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.400773203189795</v>
+        <v>1.571038864595277</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.664843334890758</v>
+        <v>1.36208636486493</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.741903244359652</v>
+        <v>1.732490160752631</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.245527740104132</v>
+        <v>1.382512006149564</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.487418183832101</v>
+        <v>1.451690772569149</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.571878174511028</v>
+        <v>1.62202758260545</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.550726832610672</v>
+        <v>1.315370352534907</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.428860012107075</v>
+        <v>1.534118990190619</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.765432810649149</v>
+        <v>1.696071413142364</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.4427583750753</v>
+        <v>1.258877514815816</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.554209878534065</v>
+        <v>1.527695078779846</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.263827145737298</v>
+        <v>1.538982419137264</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.558163468535074</v>
+        <v>1.617273430766597</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.270902278255492</v>
+        <v>1.314457393368288</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.35647977945492</v>
+        <v>1.301931508037359</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.537852063856498</v>
+        <v>1.578291234842535</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.543881583941635</v>
+        <v>1.544547700984978</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>1.400972902953487</v>
+        <v>1.537573927551881</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.483848714204107</v>
+        <v>1.551967231424546</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.555199915181679</v>
+        <v>1.397996291763226</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.750361060847609</v>
+        <v>1.53483805457415</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.48499621182391</v>
+        <v>1.543960870994802</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.164587248713618</v>
+        <v>1.392847287296045</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.560512759895741</v>
+        <v>1.779866176671713</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.317283180511882</v>
+        <v>1.571074938136768</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.693027106562896</v>
+        <v>1.321304475419603</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.380311375719619</v>
+        <v>1.598483041295074</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.685523026119164</v>
+        <v>1.353797749465902</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.390819899329944</v>
+        <v>1.618062690561368</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.492610115190801</v>
+        <v>1.673789336851111</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.708348770650657</v>
+        <v>1.376897652247243</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.456371799947596</v>
+        <v>1.644506419386648</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.314008133028393</v>
+        <v>1.561917139040475</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.488061328374034</v>
+        <v>1.623309023999173</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.595480295692359</v>
+        <v>1.784518947398092</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.598251668775543</v>
+        <v>1.46319178259957</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.453800624292344</v>
+        <v>1.386939575346377</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.51930884002646</v>
+        <v>1.366572835556171</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.545921499300655</v>
+        <v>1.377628457255184</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.355810704641818</v>
+        <v>1.488434743587884</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.152312607045816</v>
+        <v>1.551172796222497</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.664217046144797</v>
+        <v>1.541503619899503</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.263873334854475</v>
+        <v>1.624077487355404</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.543623554417009</v>
+        <v>1.501950283781686</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>1.61413962742425</v>
+        <v>1.718030111573598</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.222752813640489</v>
+        <v>1.460301475014307</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.46402454425411</v>
+        <v>1.908025374988443</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.60323441458316</v>
+        <v>1.593850102164751</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.223063085144735</v>
+        <v>1.371426366537558</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.320770069254508</v>
+        <v>1.339366125290833</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.705269377175398</v>
+        <v>1.572370862286478</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.248444931159605</v>
+        <v>1.466480582201122</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.456772162175529</v>
+        <v>1.607100074113814</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.42911313949597</v>
+        <v>1.570985643686032</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.206178436601221</v>
+        <v>1.489075663101469</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.671558037575423</v>
+        <v>1.372980942289739</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.418431739145034</v>
+        <v>1.27277291629712</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.498171633899216</v>
+        <v>1.433022757189947</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.584197673032593</v>
+        <v>1.628459819148521</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.407544859914926</v>
+        <v>1.532114061619531</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.452696514396263</v>
+        <v>1.313139183193202</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.565975706367715</v>
+        <v>1.525977138877677</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.540640237802934</v>
+        <v>1.557797606959326</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.579637983554019</v>
+        <v>1.36742138456983</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.797079249141579</v>
+        <v>1.523058765891829</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.462999198944401</v>
+        <v>1.5087313077669</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.425599302810476</v>
+        <v>1.328554455325407</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.449393304003194</v>
+        <v>1.553668104052242</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.366607407203762</v>
+        <v>1.584117678955235</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.338944695801832</v>
+        <v>1.662457686476292</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.594886438115428</v>
+        <v>1.658070307805235</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.429207506202236</v>
+        <v>1.293349594806436</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.349986047747418</v>
+        <v>1.359326244012732</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.572208901289712</v>
+        <v>1.577255290081299</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.390605541550887</v>
+        <v>1.577067892636831</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.789252588272126</v>
+        <v>1.577257152945907</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.439671270060448</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.6994604232156</v>
+        <v>1.585633576603975</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.462416333421896</v>
+        <v>1.67033484602709</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.574531152578087</v>
+        <v>1.64310026452398</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.536961790487521</v>
+        <v>1.59770868769587</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.497156546111615</v>
+        <v>1.452709613303948</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.245590442173211</v>
+        <v>1.61384538307399</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.69435621697944</v>
+        <v>1.384076217819364</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.503150223092333</v>
+        <v>1.464477208988999</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.298842142626728</v>
+        <v>1.427195467825634</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.557508923820452</v>
+        <v>1.512281120907948</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.453440554978205</v>
+        <v>1.847198785001026</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.305792400260073</v>
+        <v>1.219910221111238</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.450001091543797</v>
+        <v>1.602939028556177</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.557402516580576</v>
+        <v>1.258092619321552</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.560473075804967</v>
+        <v>1.429210220131585</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.135987662067806</v>
+        <v>1.663342589545105</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.749987938656617</v>
+        <v>1.509642002864319</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.421113673727654</v>
+        <v>1.338338283310604</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.549217176997543</v>
+        <v>1.392704443611005</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.641791494765898</v>
+        <v>1.601939662340201</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.389825696966728</v>
+        <v>1.39044500524243</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.327807757868153</v>
+        <v>1.532468788437296</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.419742120567236</v>
+        <v>1.506835775985572</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.433695286431616</v>
+        <v>1.402259947859128</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.58818047431495</v>
+        <v>1.821591613398799</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.745054640271383</v>
+        <v>1.595087853347702</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.500446213413503</v>
+        <v>1.196228612001359</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.377358385251837</v>
+        <v>1.527968147215414</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.216370985653596</v>
+        <v>1.400732030284742</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.493682781674287</v>
+        <v>1.627865000219434</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.560883657101181</v>
+        <v>1.381121889235095</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.478586392918259</v>
+        <v>1.482789533779965</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.40512574051861</v>
+        <v>1.575748091847069</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.587526401224783</v>
+        <v>1.629863279125518</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.383045312381154</v>
+        <v>1.319955538941634</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.43407933263618</v>
+        <v>1.449824814623858</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.44775808346253</v>
+        <v>1.428758203325857</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.54952479906912</v>
+        <v>1.402000615113943</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.673437856210398</v>
+        <v>1.764818136042165</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.245737084004192</v>
+        <v>1.560747256644143</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.527141880492564</v>
+        <v>1.310867406849743</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.636027209991927</v>
+        <v>1.637679292058216</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.4089514495846</v>
+        <v>1.818323429551895</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.604916317531157</v>
+        <v>1.654869789082672</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.363695975124813</v>
+        <v>1.272094505106898</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.455511952378011</v>
+        <v>1.427364889070062</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.586590592449128</v>
+        <v>1.690036672377993</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.335830283747414</v>
+        <v>1.393849580157183</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.427047561901685</v>
+        <v>1.566572914221934</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.34674925314606</v>
+        <v>1.616195108014401</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.289937068927179</v>
+        <v>1.360960429263288</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F235">
-        <v>1.648838754531288</v>
+        <v>1.49107119659073</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.781294723374858</v>
+        <v>1.013809898989639</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.548864651786616</v>
+        <v>1.346341853799857</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.409850013376667</v>
+        <v>1.462114777291026</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.508352955391049</v>
+        <v>1.312832522705273</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.651342748613966</v>
+        <v>1.744861695589745</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.275246898076818</v>
+        <v>1.285478793305905</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.431566245729593</v>
+        <v>1.433993326995452</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.507719939947335</v>
+        <v>1.519611086592914</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.740689322377492</v>
+        <v>1.716190993359917</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.538669046063144</v>
+        <v>1.284620677323084</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.467078768296875</v>
+        <v>1.674474562823244</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.571924612059304</v>
+        <v>1.501534959152938</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.559212254533813</v>
+        <v>1.352773702342807</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.665873500354341</v>
+        <v>1.569315521139491</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.463517594986685</v>
+        <v>1.529858954336021</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.307391268886351</v>
+        <v>1.409967468426181</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.643866234862989</v>
+        <v>1.510470312748503</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="F253">
-        <v>1.798275286054551</v>
+        <v>1.442202960470736</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.448855465810271</v>
+        <v>1.517027601787687</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.486973647596776</v>
+        <v>1.599319601178157</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.390539728265468</v>
+        <v>1.737902522421803</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.640068834355965</v>
+        <v>1.314327675175973</v>
       </c>
     </row>
   </sheetData>
